--- a/src/DB/music list_v1.xlsx
+++ b/src/DB/music list_v1.xlsx
@@ -5,20 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ww/Desktop/ww/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ww/Desktop/2019-cap1-2019_10/src/DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09F21004-2ED1-AE43-BDAC-3BC6D04F6B9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEC2C88-6DB4-5C44-A567-F412B533A9D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="460" windowWidth="22400" windowHeight="15960" activeTab="5" xr2:uid="{BBF66DE9-581D-6044-AA23-DDD04E8B232C}"/>
+    <workbookView xWindow="9440" yWindow="580" windowWidth="22400" windowHeight="15960" activeTab="7" xr2:uid="{BBF66DE9-581D-6044-AA23-DDD04E8B232C}"/>
   </bookViews>
   <sheets>
-    <sheet name="happiness" sheetId="1" r:id="rId1"/>
-    <sheet name="sadness" sheetId="2" r:id="rId2"/>
-    <sheet name="surprise" sheetId="4" r:id="rId3"/>
-    <sheet name="a_c_d" sheetId="5" r:id="rId4"/>
-    <sheet name="동요" sheetId="10" r:id="rId5"/>
-    <sheet name="40" sheetId="11" r:id="rId6"/>
+    <sheet name="happiness" sheetId="13" r:id="rId1"/>
+    <sheet name="sadness" sheetId="20" r:id="rId2"/>
+    <sheet name="surprise" sheetId="19" r:id="rId3"/>
+    <sheet name="fear " sheetId="12" r:id="rId4"/>
+    <sheet name="disgust" sheetId="18" r:id="rId5"/>
+    <sheet name="anger" sheetId="17" r:id="rId6"/>
+    <sheet name="40" sheetId="14" r:id="rId7"/>
+    <sheet name="lie" sheetId="15" r:id="rId8"/>
+    <sheet name="동요" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="222">
   <si>
     <t>youtube_link</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -47,10 +50,6 @@
   </si>
   <si>
     <t>music</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -359,14 +358,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유투브 링크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>노래이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://youtu.be/eToI-YtTiHM</t>
   </si>
   <si>
@@ -812,273 +803,253 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>최진희 - 여정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>혜은이 - 당신은 모르실거야</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오기택 - 고향무정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나훈아 - 모르고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나훈아 - 갈무리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박강성 - 문밖에 있는 그대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최석준 - 꽃을 든 남자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이범용&amp;한명훈 - 꿈의 대화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나훈아 - 내삶을 눈물로 채워도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>백지영 - 사랑하나면 돼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조항조 - 사나이 눈물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김혜연 - 참아주세요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>솔개트리오 - 아직도못다한 사랑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김용임 - 열두줄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진시몬 - 애원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나훈아 - 홍시(울엄마)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최유나 - 반지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김란영 - 가인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박상철 - 꽃바람</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서유석 - 가는세월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유익종 - 그저 바라볼수만 있어도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김경남 -  님의햐이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설운도 - 갈매기 사랑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나훈아 - 사내</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>노사연 - 사랑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조용필 - 강원도 아리랑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전철 - 해운대 연가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2NE1 - 박수쳐</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ZTw-UM5Jy4E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2NE1 - 아파</t>
-  </si>
-  <si>
-    <t>https://youtu.be/aUiMaz4BNKw</t>
-  </si>
-  <si>
-    <t>2NE1 - FOLLOW ME(날 따라해봐요) </t>
-  </si>
-  <si>
-    <t>https://youtu.be/MAJ6Xk9bnew</t>
-  </si>
-  <si>
-    <t>장윤정 - 사랑해요</t>
-  </si>
-  <si>
-    <t>홍진영 - 산다는 건</t>
-  </si>
-  <si>
-    <t>오승근 - 내 나이가 어때서</t>
-  </si>
-  <si>
-    <t>이애란 - 백세인생</t>
-  </si>
-  <si>
-    <t>진성 - 안동역에서</t>
-  </si>
-  <si>
-    <t>리지 - 쉬운 여자 아니에요 (Feat. 정형돈)</t>
+    <t>열5</t>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/WZwr2a_lFWY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IZ*ONE (아이즈원) - 라비앙로즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/pBuZEGYXA6E</t>
+  </si>
+  <si>
+    <t>BTS (방탄소년단) - IDOL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://youtu.be/pNfTK39k55U</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2NE1 - 내가 제일 잘 나가</t>
-  </si>
-  <si>
-    <t>https://youtu.be/j7_lSP8Vc3o</t>
-  </si>
-  <si>
-    <t>4MINUTE - 미쳐 (Crazy)</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Do_pJSGhWVg</t>
-  </si>
-  <si>
-    <t>4 Minute - Muzik</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://youtu.be/aNYImwBU4f4</t>
-  </si>
-  <si>
-    <t>걸스데이 - 반짝반짝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://youtu.be/DWpl2CaCnVA</t>
-  </si>
-  <si>
-    <t>4MINUTE - 이름이 뭐예요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://youtu.be/H-IJWqIHioA</t>
-  </si>
-  <si>
-    <t>씨스타 - SHAKE IT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://youtu.be/0Z7UVf26KS0</t>
-  </si>
-  <si>
-    <t>걸스데이 - Darling(달링)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://youtu.be/QB4dQcxgJPY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>씨스타</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Loving U</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://youtu.be/oL2AlXWVbKU</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">씨스타 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Touch my body</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://youtu.be/9txzvu6eQuw</t>
-  </si>
-  <si>
-    <t>티아라 - Roly Poly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://youtu.be/mhezLlzHCM8</t>
-  </si>
-  <si>
-    <t>열1</t>
-  </si>
-  <si>
-    <t>열2</t>
-  </si>
-  <si>
-    <t>열3</t>
-  </si>
-  <si>
-    <t>열5</t>
-  </si>
-  <si>
-    <t>tag</t>
+  </si>
+  <si>
+    <t>80.전철 - 해운대 연가</t>
+  </si>
+  <si>
+    <t>79.조용필 - 강원도 아리랑</t>
+  </si>
+  <si>
+    <t>78.노사연 - 사랑</t>
+  </si>
+  <si>
+    <t>77.나훈아 - 사내</t>
+  </si>
+  <si>
+    <t>76.설운도 - 갈매기 사랑</t>
+  </si>
+  <si>
+    <t>75.김경남 -  님의햐이</t>
+  </si>
+  <si>
+    <t>74.유익종 - 그저 바라볼수만 있어도</t>
+  </si>
+  <si>
+    <t>73.서유석 - 가는세월</t>
+  </si>
+  <si>
+    <t>72.박상철 - 꽃바람</t>
+  </si>
+  <si>
+    <t>71.김란영 - 가인</t>
+  </si>
+  <si>
+    <t>70.최유나 - 반지</t>
+  </si>
+  <si>
+    <t>69.나훈아 - 홍시(울엄마)</t>
+  </si>
+  <si>
+    <t>68.진시몬 - 애원</t>
+  </si>
+  <si>
+    <t>67.김용임 - 열두줄</t>
+  </si>
+  <si>
+    <t>66.솔개트리오 - 아직도못다한 사랑</t>
+  </si>
+  <si>
+    <t>65.김혜연 - 참아주세요</t>
+  </si>
+  <si>
+    <t>64.조항조 - 사나이 눈물</t>
+  </si>
+  <si>
+    <t>63.백지영 - 사랑하나면 돼</t>
+  </si>
+  <si>
+    <t>62.나훈아 - 내삶을 눈물로 채워도</t>
+  </si>
+  <si>
+    <t>61.최석준 - 꽃을 든 남자</t>
+  </si>
+  <si>
+    <t>60.이범용&amp;한명훈 - 꿈의 대화</t>
+  </si>
+  <si>
+    <t>59.박강성 - 문밖에 있는 그대</t>
+  </si>
+  <si>
+    <t>58.나훈아 - 갈무리</t>
+  </si>
+  <si>
+    <t>57.나훈아 - 모르고</t>
+  </si>
+  <si>
+    <t>56.오기택 - 고향무정</t>
+  </si>
+  <si>
+    <t>55.혜은이 - 당신은 모르실거야</t>
+  </si>
+  <si>
+    <t>54.최진희 - 여정</t>
+  </si>
+  <si>
+    <t>https://youtu.be/gS1QYmgcDD0</t>
+  </si>
+  <si>
+    <t>토이 - 거짓말 같은 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/5UptXCh5FnA</t>
+  </si>
+  <si>
+    <t>김추자 - 거짓말이야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/IMoNvlmbRt0</t>
+  </si>
+  <si>
+    <t>김현정 - 거짓말처럼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/5zRg2PJeM9U</t>
+  </si>
+  <si>
+    <t>브로콜리너마저 - 그 모든 진짜같던 거짓말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/A6Wp-MUhPbc</t>
+  </si>
+  <si>
+    <t>플로우식 - BBUNG(뻥)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/oU7rqB9E_0M</t>
+  </si>
+  <si>
+    <t>Queen - Liar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/YisadZKZkAY</t>
+  </si>
+  <si>
+    <t>틴탑 - Liar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/9OAdIqMPJU4</t>
+  </si>
+  <si>
+    <t>카더가든 - Lie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/e8CKH3PNKKs</t>
+  </si>
+  <si>
+    <t>페노메코 - L.I.E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/KUFuN495SKE</t>
+  </si>
+  <si>
+    <t>god - 거짓말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/yPeu7iFCtGg</t>
+  </si>
+  <si>
+    <t>buzz - 거짓말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/RnDSODY7bVE</t>
+  </si>
+  <si>
+    <t>EXID - L.I.E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/LNZKqhXCv5c</t>
+  </si>
+  <si>
+    <t>오마이걸 - LIAR LIAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/BOPCTEpTidg</t>
+  </si>
+  <si>
+    <t>킬라그램 - 거짓말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/za3Uun9ToS4</t>
+  </si>
+  <si>
+    <t>매드클라운 - 거짓말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/2TK0eL50EkA</t>
+  </si>
+  <si>
+    <t>이적 - Lie Lie Lie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/DKJKh_fjwQM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/U7qJMC5TLV8</t>
+  </si>
+  <si>
+    <t>티아라 - Lie (거짓말)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/2Cv3phvP8Ro</t>
+  </si>
+  <si>
+    <t>빅뱅 - 거짓말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열6</t>
+  </si>
+  <si>
+    <t>subclass</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1086,7 +1057,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1162,26 +1133,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="NanumGothic"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF4D4D4D"/>
-      <name val="Dotum"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1244,14 +1195,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1272,23 +1220,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1296,19 +1232,48 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1322,6 +1287,19 @@
         <top style="thin">
           <color rgb="FF3F3F3F"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1338,26 +1316,122 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B14B0E56-C484-F34B-88CC-47A67781E7CD}" name="표1" displayName="표1" ref="A1:C48" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2" headerRowCellStyle="출력">
-  <autoFilter ref="A1:C48" xr:uid="{AA1F6438-E1C4-DD45-B251-8159B126CD74}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BFDF5986-EC2A-154F-8169-0389FA75F2DA}" name="표3" displayName="표3" ref="A1:C63" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" headerRowCellStyle="출력">
+  <autoFilter ref="A1:C63" xr:uid="{86194186-CC08-0748-99C7-040F7A8088BE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C38">
+    <sortCondition descending="1" ref="C1:C63"/>
+  </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1F9447D3-FAD0-B048-AA6D-242095685163}" name="music"/>
-    <tableColumn id="2" xr3:uid="{235CFCF9-E024-4844-95D9-E4510E4B91BB}" name="youtube_link"/>
-    <tableColumn id="3" xr3:uid="{F26EE969-9083-7445-85D5-CFBA30359709}" name="age"/>
+    <tableColumn id="1" xr3:uid="{8C6C4511-B0B0-554A-BE7C-AF2152C9E8B1}" name="music"/>
+    <tableColumn id="2" xr3:uid="{65E93339-6043-C949-A529-A9D9CB640EF6}" name="youtube_link"/>
+    <tableColumn id="3" xr3:uid="{BF88849C-3518-B34B-BFDD-B0AD09A9BEE9}" name="age"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1AB823E-0B84-CE45-80B4-40B7E413CD64}" name="표2" displayName="표2" ref="A1:E61" totalsRowShown="0">
-  <autoFilter ref="A1:E61" xr:uid="{629DCBEC-2918-D749-8F8E-885FA654B587}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{94711283-FB42-0443-8C05-6EFEA6A05877}" name="표5" displayName="표5" ref="A1:E86" totalsRowShown="0">
+  <autoFilter ref="A1:E86" xr:uid="{09CBC797-BCF0-5240-B15F-79D6A49E7116}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EA776E4C-FFCD-7346-BABD-F2F93DD32601}" name="열1"/>
-    <tableColumn id="2" xr3:uid="{60588CF0-712C-C540-A4B9-E886B3A5246A}" name="열2"/>
-    <tableColumn id="3" xr3:uid="{3E92B9BC-C445-214D-AA6C-CD512E19D8EC}" name="열3"/>
-    <tableColumn id="4" xr3:uid="{0B8D9299-CBB5-7841-BEED-5E5F61F07471}" name="tag"/>
-    <tableColumn id="5" xr3:uid="{647C7C15-EA7F-6545-9F33-1226E5318548}" name="열5"/>
+    <tableColumn id="1" xr3:uid="{9980AD31-18B7-6747-8279-D06E20F8BF8D}" name="music"/>
+    <tableColumn id="2" xr3:uid="{97953C3D-898E-2D49-9F29-94BC049448E5}" name="youtube_link"/>
+    <tableColumn id="3" xr3:uid="{1FB3AD09-B3E7-CF43-BF82-4E9B1869D784}" name="age"/>
+    <tableColumn id="4" xr3:uid="{25ECFA5C-F2F3-B94A-BCFF-82D9AB9CFA18}" name="tag1"/>
+    <tableColumn id="5" xr3:uid="{0607CE8A-8F28-4A41-A6A2-165D7CA10B70}" name="tag2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{631C70B6-1DA1-1444-B9A0-2D8E2A0C6DBB}" name="표5_7" displayName="표5_7" ref="A1:E86" totalsRowShown="0">
+  <autoFilter ref="A1:E86" xr:uid="{1025A2FE-C42D-D346-BBF1-3B2502ED9DB8}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{049C47A4-C747-5748-A76B-D2F0BC0597AB}" name="music"/>
+    <tableColumn id="2" xr3:uid="{9E83562C-BD20-7B43-BAD9-803C4D8F083D}" name="youtube_link"/>
+    <tableColumn id="3" xr3:uid="{DC6A1A54-8670-6645-8D32-204E791F3C8A}" name="age"/>
+    <tableColumn id="4" xr3:uid="{5DF5D325-7C94-4E43-A7E3-F53B34D3086B}" name="tag1"/>
+    <tableColumn id="5" xr3:uid="{0B060925-BB64-F24D-9F0C-C24BE5E84111}" name="tag2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4644C629-26DE-D04C-9890-37F4D6BE97C8}" name="표5_8" displayName="표5_8" ref="A1:E86" totalsRowShown="0">
+  <autoFilter ref="A1:E86" xr:uid="{510CD7B8-40A6-DD40-8B03-F8D2A665DDF1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F148D6A5-260B-FB4F-8D3C-FEDC2240F427}" name="music"/>
+    <tableColumn id="2" xr3:uid="{106999C6-45D0-3C4B-9EDD-61BEC78ADEB9}" name="youtube_link"/>
+    <tableColumn id="3" xr3:uid="{06FA010A-DBA0-EE4C-B8AC-2E68CD13F8FD}" name="age"/>
+    <tableColumn id="4" xr3:uid="{AD9A2B2D-3C45-B145-A2BA-3CAFC71709C4}" name="tag1"/>
+    <tableColumn id="5" xr3:uid="{77635E16-587F-EF48-9494-0943B3A0E573}" name="tag2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E18FB35C-A617-A643-AF2E-5CDE1AF95428}" name="표5_9" displayName="표5_9" ref="A1:E86" totalsRowShown="0">
+  <autoFilter ref="A1:E86" xr:uid="{05EA4D8E-EAFE-7D47-A991-6F809469676B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9E16B87D-A53B-2A47-8D43-673638789752}" name="music"/>
+    <tableColumn id="2" xr3:uid="{32FA1814-B3F5-FE4C-86B5-312C8518401F}" name="youtube_link"/>
+    <tableColumn id="3" xr3:uid="{D6A45EBB-80EB-2648-9B96-0E3F13F8A775}" name="age"/>
+    <tableColumn id="4" xr3:uid="{7F3BEE2B-50CF-8B4F-BF2B-3CF3E1A24CB0}" name="tag1"/>
+    <tableColumn id="5" xr3:uid="{CED48B7B-22F4-6E47-BB8A-6E60D8E80909}" name="tag2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{32763396-FB10-6A4B-842C-82D4407C7CFE}" name="표5_10" displayName="표5_10" ref="A1:E86" totalsRowShown="0">
+  <autoFilter ref="A1:E86" xr:uid="{5F7BAB97-CACD-DF4B-A0AC-A0909F2F7C55}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8855D7DC-B4A0-DA48-B274-0EE18E1851E0}" name="music"/>
+    <tableColumn id="2" xr3:uid="{5D526443-86DC-4947-B9E6-6FB00672F223}" name="youtube_link"/>
+    <tableColumn id="3" xr3:uid="{AF496DF2-B30E-924B-BB85-EADFC29EA295}" name="age"/>
+    <tableColumn id="4" xr3:uid="{438A2EDD-63AD-7B40-AA96-DB63AEC563DC}" name="tag1"/>
+    <tableColumn id="5" xr3:uid="{579DE945-FA8C-9E42-A0ED-D176A36E656B}" name="tag2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{AB90433F-B55E-F24E-A0E7-C490D0A4A912}" name="표10" displayName="표10" ref="F1:F87" totalsRowShown="0">
+  <autoFilter ref="F1:F87" xr:uid="{6D9765EF-F5C3-8D43-9211-1E2DC6F8212B}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{47D8F7AB-72E0-0347-B003-18C5B7C55798}" name="subclass"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2BF6A5C0-E0FD-DD46-9FFE-430904D52814}" name="표2" displayName="표2" ref="A1:F50" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:F50" xr:uid="{54CDF0FF-2FD1-6D43-85D1-0F507A330380}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{BE3DA650-EFE3-C04E-A4C6-95F7F1DC9B3A}" name="music" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{8511FB43-70E7-2343-8C5C-67AB14F5EB52}" name="youtube_link" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{9E5AEA9F-C26F-4840-A16E-33FB777EFE78}" name="age" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{4E933333-CCF1-374B-8E2E-7BC97A1DD1AC}" name="tag" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{2D4F0E14-EFD2-FA48-BFA0-118BC7A6DCD6}" name="열5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{B536B6B5-042D-6C49-BD53-EB73D212CEE2}" name="열6" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35B28E00-E684-5C44-AE01-D103B0B75584}" name="표4" displayName="표4" ref="A1:C22" totalsRowShown="0">
+  <autoFilter ref="A1:C22" xr:uid="{D78C75CA-3F2A-2045-B440-72BEC6BDF510}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8324F979-F3AF-E747-92A9-6B5902332458}" name="music" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{A1DBC9FA-01E7-7444-AF5C-227387E3EC31}" name="youtube_link"/>
+    <tableColumn id="3" xr3:uid="{21946E1A-094A-0A4C-A288-3651D0398791}" name="age"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1659,718 +1733,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FEDAE7-7EEF-6042-8FD4-291485B4F2AD}">
-  <dimension ref="A1:E136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF46CBA-3AB6-8345-9591-91CEDDEB0145}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="8">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="7">
         <v>1020</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="7">
+        <v>83</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="6">
         <v>1020</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="7">
+        <v>85</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="6">
         <v>1020</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="7">
+        <v>87</v>
+      </c>
+      <c r="C5" s="6">
         <v>1020</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="9">
+        <v>89</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="6">
         <v>1020</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="9">
+        <v>90</v>
+      </c>
+      <c r="C7" s="6">
         <v>1020</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="C8" s="9">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="6">
         <v>1020</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C11" s="6">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="9">
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="6">
         <v>1020</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="7">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="7">
+        <v>103</v>
+      </c>
+      <c r="C13" s="6">
         <v>1020</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="7">
+        <v>104</v>
+      </c>
+      <c r="C14" s="6">
         <v>1020</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="7">
-        <v>25</v>
+      <c r="A15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="6">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="7">
+        <v>93</v>
+      </c>
+      <c r="C16" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="7">
+    <row r="17" spans="3:3">
+      <c r="C17" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1">
-      <c r="A19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="7">
-        <v>25</v>
-      </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="10"/>
-      <c r="C21" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B27" t="s">
-        <v>205</v>
-      </c>
-      <c r="C27" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1"/>
-      <c r="C30" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="13"/>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="13"/>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="13"/>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" s="13"/>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" s="13"/>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" s="13"/>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" s="13"/>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" s="13"/>
-    </row>
-    <row r="58" spans="3:3">
-      <c r="C58" s="13"/>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" s="13"/>
-    </row>
-    <row r="60" spans="3:3">
-      <c r="C60" s="13"/>
-    </row>
-    <row r="61" spans="3:3">
-      <c r="C61" s="13"/>
-    </row>
-    <row r="62" spans="3:3">
-      <c r="C62" s="13"/>
-    </row>
-    <row r="63" spans="3:3">
-      <c r="C63" s="13"/>
-    </row>
-    <row r="64" spans="3:3">
-      <c r="C64" s="13"/>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="13"/>
-    </row>
-    <row r="66" spans="3:3">
-      <c r="C66" s="13"/>
-    </row>
-    <row r="67" spans="3:3">
-      <c r="C67" s="13"/>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="13"/>
-    </row>
-    <row r="69" spans="3:3">
-      <c r="C69" s="13"/>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="13"/>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="13"/>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" s="13"/>
-    </row>
-    <row r="73" spans="3:3">
-      <c r="C73" s="13"/>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" s="13"/>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" s="13"/>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" s="13"/>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" s="13"/>
-    </row>
-    <row r="78" spans="3:3">
-      <c r="C78" s="13"/>
-    </row>
-    <row r="79" spans="3:3">
-      <c r="C79" s="13"/>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="13"/>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="13"/>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" s="13"/>
-    </row>
-    <row r="83" spans="3:3">
-      <c r="C83" s="13"/>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" s="13"/>
-    </row>
-    <row r="85" spans="3:3">
-      <c r="C85" s="13"/>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86" s="13"/>
-    </row>
-    <row r="87" spans="3:3">
-      <c r="C87" s="13"/>
-    </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="13"/>
-    </row>
-    <row r="89" spans="3:3">
-      <c r="C89" s="13"/>
-    </row>
-    <row r="90" spans="3:3">
-      <c r="C90" s="13"/>
-    </row>
-    <row r="91" spans="3:3">
-      <c r="C91" s="13"/>
-    </row>
-    <row r="92" spans="3:3">
-      <c r="C92" s="13"/>
-    </row>
-    <row r="93" spans="3:3">
-      <c r="C93" s="13"/>
-    </row>
-    <row r="94" spans="3:3">
-      <c r="C94" s="13"/>
-    </row>
-    <row r="95" spans="3:3">
-      <c r="C95" s="13"/>
-    </row>
-    <row r="96" spans="3:3">
-      <c r="C96" s="13"/>
-    </row>
-    <row r="97" spans="3:3">
-      <c r="C97" s="13"/>
-    </row>
-    <row r="98" spans="3:3">
-      <c r="C98" s="13"/>
-    </row>
-    <row r="99" spans="3:3">
-      <c r="C99" s="13"/>
-    </row>
-    <row r="100" spans="3:3">
-      <c r="C100" s="13"/>
-    </row>
-    <row r="101" spans="3:3">
-      <c r="C101" s="13"/>
-    </row>
-    <row r="102" spans="3:3">
-      <c r="C102" s="13"/>
-    </row>
-    <row r="103" spans="3:3">
-      <c r="C103" s="13"/>
-    </row>
-    <row r="104" spans="3:3">
-      <c r="C104" s="13"/>
-    </row>
-    <row r="105" spans="3:3">
-      <c r="C105" s="13"/>
-    </row>
-    <row r="106" spans="3:3">
-      <c r="C106" s="13"/>
-    </row>
-    <row r="107" spans="3:3">
-      <c r="C107" s="13"/>
-    </row>
-    <row r="108" spans="3:3">
-      <c r="C108" s="13"/>
-    </row>
-    <row r="109" spans="3:3">
-      <c r="C109" s="13"/>
-    </row>
-    <row r="110" spans="3:3">
-      <c r="C110" s="13"/>
-    </row>
-    <row r="111" spans="3:3">
-      <c r="C111" s="13"/>
-    </row>
-    <row r="112" spans="3:3">
-      <c r="C112" s="13"/>
-    </row>
-    <row r="113" spans="3:3">
-      <c r="C113" s="13"/>
-    </row>
-    <row r="114" spans="3:3">
-      <c r="C114" s="13"/>
-    </row>
-    <row r="115" spans="3:3">
-      <c r="C115" s="13"/>
-    </row>
-    <row r="116" spans="3:3">
-      <c r="C116" s="13"/>
-    </row>
-    <row r="117" spans="3:3">
-      <c r="C117" s="13"/>
-    </row>
-    <row r="118" spans="3:3">
-      <c r="C118" s="13"/>
-    </row>
-    <row r="119" spans="3:3">
-      <c r="C119" s="13"/>
-    </row>
-    <row r="120" spans="3:3">
-      <c r="C120" s="13"/>
-    </row>
-    <row r="121" spans="3:3">
-      <c r="C121" s="13"/>
-    </row>
-    <row r="122" spans="3:3">
-      <c r="C122" s="13"/>
-    </row>
-    <row r="123" spans="3:3">
-      <c r="C123" s="13"/>
-    </row>
-    <row r="124" spans="3:3">
-      <c r="C124" s="13"/>
-    </row>
-    <row r="125" spans="3:3">
-      <c r="C125" s="13"/>
-    </row>
-    <row r="126" spans="3:3">
-      <c r="C126" s="13"/>
-    </row>
-    <row r="127" spans="3:3">
-      <c r="C127" s="13"/>
-    </row>
-    <row r="128" spans="3:3">
-      <c r="C128" s="13"/>
-    </row>
-    <row r="129" spans="3:3">
-      <c r="C129" s="13"/>
-    </row>
-    <row r="130" spans="3:3">
-      <c r="C130" s="13"/>
-    </row>
-    <row r="131" spans="3:3">
-      <c r="C131" s="13"/>
-    </row>
-    <row r="132" spans="3:3">
-      <c r="C132" s="13"/>
-    </row>
-    <row r="133" spans="3:3">
-      <c r="C133" s="13"/>
-    </row>
-    <row r="134" spans="3:3">
-      <c r="C134" s="13"/>
-    </row>
-    <row r="135" spans="3:3">
-      <c r="C135" s="13"/>
-    </row>
-    <row r="136" spans="3:3">
-      <c r="C136" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{7ECA9F77-516E-5349-9DCE-CF81592FE5EE}"/>
-    <hyperlink ref="B22" r:id="rId2" xr:uid="{C5F84C4F-46D1-374F-B319-AEE607925FBA}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{3DCBECD3-B3B3-7641-A03A-B1595381E677}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{32E394AB-8C37-614C-B9F2-6BB069D1A7CC}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{40A77E32-06A4-744F-B90B-2787246DB6FD}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{594D574C-A517-4649-B7FA-0B2E73BC4F02}"/>
-    <hyperlink ref="B3" r:id="rId7" xr:uid="{7A298018-0C66-6647-9B84-B1543EF04950}"/>
-    <hyperlink ref="B15" r:id="rId8" xr:uid="{85E3001C-D3CA-7544-B62D-3F0F0BD68389}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{0DB92800-FBD7-4143-BCBA-99F424F60EB7}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{557EAFF4-78E5-3C41-996C-C9FA93B920C3}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{788FC0C6-43F9-CE49-8252-A7E13EFD8E99}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{5F8BE088-DFE2-1E4B-B2E1-B20922547910}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{CDE21C09-F338-724A-8161-F9E35052B493}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{DADCC187-5B35-5648-84EB-C483D98AE201}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC181BF-3E1A-544C-9A13-9996944CB3D6}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1970D495-D607-5F43-B695-7B869A0FDD27}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="1" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="E1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23">
-        <v>25</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2383,268 +1983,172 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE72326-159B-864B-B44F-E5B382346CBD}">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707A2EA3-D63D-5541-BC5E-A501620F32F0}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>3</v>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCD67FC-9E22-5143-8BAD-6430BE170C4C}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6139EF10-632F-A242-A006-F6659ADFC8B6}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection sqref="A1:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="1" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C502399-43CF-7241-85A3-483243B1C34B}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5D98FA-753F-B249-9583-2FF1F80C4C80}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection sqref="A1:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="1" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CD0A4C-9996-CB40-A676-0DE3620CF37D}">
-  <dimension ref="A2:B108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCED6C6-2983-674F-A6E1-392ACCCCB929}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8897AF87-04E7-984D-BDAC-A24EDB69AA0C}">
+  <dimension ref="A2:B102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2655,554 +2159,1236 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>83</v>
+      <c r="A2" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>82</v>
+      <c r="A3" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>80</v>
+      <c r="A4" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>79</v>
+      <c r="A5" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>78</v>
+      <c r="A6" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
-        <v>76</v>
+      <c r="A7" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
-        <v>75</v>
+      <c r="A8" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>74</v>
+      <c r="A9" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>73</v>
+      <c r="A10" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
-        <v>72</v>
+      <c r="A11" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
-        <v>71</v>
+      <c r="A12" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
-        <v>70</v>
+      <c r="A13" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
-        <v>69</v>
+      <c r="A14" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
-        <v>68</v>
+      <c r="A15" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
-        <v>67</v>
+      <c r="A16" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
-        <v>66</v>
+      <c r="A17" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
-        <v>65</v>
+      <c r="A18" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
-        <v>64</v>
+      <c r="A19" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
-        <v>63</v>
+      <c r="A20" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
-        <v>62</v>
+      <c r="A21" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
-        <v>61</v>
+      <c r="A22" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
-        <v>60</v>
+      <c r="A23" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
-        <v>59</v>
+      <c r="A24" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
-        <v>58</v>
+      <c r="A25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
-        <v>57</v>
+      <c r="A26" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
-        <v>56</v>
+      <c r="A27" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
-        <v>55</v>
+      <c r="A28" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
-        <v>54</v>
+      <c r="A29" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="5" t="s">
-        <v>53</v>
+      <c r="A30" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="5" t="s">
-        <v>52</v>
+      <c r="A31" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="5" t="s">
-        <v>51</v>
+      <c r="A32" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="5" t="s">
-        <v>50</v>
+      <c r="A33" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="5" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="5" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="5" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="5" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="5" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="5" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="5" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="5" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="5" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="5" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="5" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="5" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="5" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="5" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="5" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="5" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="5" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="5" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="4" t="s">
-        <v>49</v>
+      <c r="A102" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="11" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5516A2F-F380-5F4E-A4CE-A6FEF40DD8EB}">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FF17E0-74F4-644E-A35F-EE29C9F411AA}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/src/DB/music list_v1.xlsx
+++ b/src/DB/music list_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ww/Desktop/2019-cap1-2019_10/src/DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEC2C88-6DB4-5C44-A567-F412B533A9D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70A061E-1EBA-324D-B2F3-4F98B625962A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9440" yWindow="580" windowWidth="22400" windowHeight="15960" activeTab="7" xr2:uid="{BBF66DE9-581D-6044-AA23-DDD04E8B232C}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="22400" windowHeight="15960" xr2:uid="{BBF66DE9-581D-6044-AA23-DDD04E8B232C}"/>
   </bookViews>
   <sheets>
     <sheet name="happiness" sheetId="13" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="252">
   <si>
     <t>youtube_link</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -548,10 +548,6 @@
     <t>https://youtu.be/Il-an3K9pjg</t>
   </si>
   <si>
-    <t>MOMOLAND (모모랜드) - 뿜뿜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://youtu.be/JQGRg8XBnB4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1050,6 +1046,138 @@
   </si>
   <si>
     <t>subclass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/txWmd7QKFe8</t>
+  </si>
+  <si>
+    <t>MOMOLAND(모모랜드) - 뿜뿜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOMOLAND(모모랜드) - BAAM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고래를 위하여(고등래퍼3) - 강민수, 이진우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/B2I9SeUEzUE</t>
+  </si>
+  <si>
+    <t>컨닝페이퍼(고등래퍼3) - 강민수, 서민규</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/9qgFCiN77Gs</t>
+  </si>
+  <si>
+    <t>눈(고등래퍼3) - 강현준, 김호진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/-ZZ90fD86ok</t>
+  </si>
+  <si>
+    <t>Like It (고등래퍼2) - 배연서, 윤진영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/loJZCAqPHj8</t>
+  </si>
+  <si>
+    <t>붕붕 (고등래퍼2) - 김하온</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/cDq1vUwM21k</t>
+  </si>
+  <si>
+    <t>북 (고등래퍼2) - 배연서, 오담률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/T4XkrOz4tnY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/o0WCva5Stk4</t>
+  </si>
+  <si>
+    <t>블락비 (Block B) - HER</t>
+  </si>
+  <si>
+    <r>
+      <t>블락비 (Block B) - JACKPOT(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잭팟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/h4zvN1Pjzn8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/u6M3KnLbPaE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지코(ZICO) - 사랑이었다 (Feat. 루나)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#이별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/avoCSYEWhR0</t>
+  </si>
+  <si>
+    <t>지코(ZICO) - Boys and Girls (Feat. Babylon)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/N3ORTeBPfZ0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지코(ZICO) - 말해 yes or no </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/kJGcO5Une-g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블락비(Block B) - Very Good</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/pNtuOrw6mfc</t>
+  </si>
+  <si>
+    <t>블락비(block b) - 빛이 되어 줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#위로</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1277,16 +1405,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color rgb="FF3F3F3F"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color rgb="FF3F3F3F"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1316,9 +1444,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BFDF5986-EC2A-154F-8169-0389FA75F2DA}" name="표3" displayName="표3" ref="A1:C63" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" headerRowCellStyle="출력">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BFDF5986-EC2A-154F-8169-0389FA75F2DA}" name="표3" displayName="표3" ref="A1:C63" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" headerRowCellStyle="출력">
   <autoFilter ref="A1:C63" xr:uid="{86194186-CC08-0748-99C7-040F7A8088BE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C41">
     <sortCondition descending="1" ref="C1:C63"/>
   </sortState>
   <tableColumns count="3">
@@ -1333,6 +1461,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{94711283-FB42-0443-8C05-6EFEA6A05877}" name="표5" displayName="표5" ref="A1:E86" totalsRowShown="0">
   <autoFilter ref="A1:E86" xr:uid="{09CBC797-BCF0-5240-B15F-79D6A49E7116}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E3">
+    <sortCondition ref="D1:D86"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9980AD31-18B7-6747-8279-D06E20F8BF8D}" name="music"/>
     <tableColumn id="2" xr3:uid="{97953C3D-898E-2D49-9F29-94BC049448E5}" name="youtube_link"/>
@@ -1734,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF46CBA-3AB6-8345-9591-91CEDDEB0145}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1761,7 +1892,7 @@
         <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="7">
         <v>1020</v>
@@ -1824,10 +1955,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="6">
         <v>1020</v>
@@ -1835,10 +1966,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="C9" s="6">
         <v>1020</v>
@@ -1846,10 +1977,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="6">
         <v>1020</v>
@@ -1857,10 +1988,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C11" s="6">
         <v>1020</v>
@@ -1868,10 +1999,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
         <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>99</v>
       </c>
       <c r="C12" s="6">
         <v>1020</v>
@@ -1879,10 +2010,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
         <v>102</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
       </c>
       <c r="C13" s="6">
         <v>1020</v>
@@ -1890,41 +2021,204 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="6">
         <v>1020</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>100</v>
+      <c r="A15" t="s">
+        <v>232</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="C15" s="6">
-        <v>30</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>92</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B23" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C23" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="6">
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="6">
         <v>25</v>
       </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1935,20 +2229,21 @@
     <hyperlink ref="B9" r:id="rId4" xr:uid="{5F8BE088-DFE2-1E4B-B2E1-B20922547910}"/>
     <hyperlink ref="B10" r:id="rId5" xr:uid="{CDE21C09-F338-724A-8161-F9E35052B493}"/>
     <hyperlink ref="B11" r:id="rId6" xr:uid="{DADCC187-5B35-5648-84EB-C483D98AE201}"/>
+    <hyperlink ref="B28" r:id="rId7" xr:uid="{1E5F000A-9696-6A48-866E-38AEAB9B6A88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1970D495-D607-5F43-B695-7B869A0FDD27}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1967,17 +2262,42 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{34B4F41F-4CF0-4F4D-B663-0B31DE22ECEC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1992,8 +2312,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="1" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2007,10 +2326,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2046,10 +2365,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2085,10 +2404,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2124,13 +2443,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2329,342 +2648,342 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2685,7 +3004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5516A2F-F380-5F4E-A4CE-A6FEF40DD8EB}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
@@ -2705,21 +3024,21 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2728,10 +3047,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2743,7 +3062,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2752,10 +3071,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2764,10 +3083,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2776,10 +3095,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2788,10 +3107,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2800,10 +3119,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2812,10 +3131,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2824,10 +3143,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2836,10 +3155,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -2848,10 +3167,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2860,10 +3179,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -2872,10 +3191,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2884,10 +3203,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2896,10 +3215,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2908,10 +3227,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -2920,10 +3239,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -2932,10 +3251,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3196,7 +3515,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/src/DB/music list_v1.xlsx
+++ b/src/DB/music list_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ww/Desktop/2019-cap1-2019_10/src/DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70A061E-1EBA-324D-B2F3-4F98B625962A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFCCA0E-9578-D346-A369-CA15A741E2C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="22400" windowHeight="15960" xr2:uid="{BBF66DE9-581D-6044-AA23-DDD04E8B232C}"/>
+    <workbookView minimized="1" xWindow="6400" yWindow="460" windowWidth="22400" windowHeight="15960" activeTab="2" xr2:uid="{BBF66DE9-581D-6044-AA23-DDD04E8B232C}"/>
   </bookViews>
   <sheets>
     <sheet name="happiness" sheetId="13" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="250">
   <si>
     <t>youtube_link</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1032,13 +1032,6 @@
   </si>
   <si>
     <t>티아라 - Lie (거짓말)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://youtu.be/2Cv3phvP8Ro</t>
-  </si>
-  <si>
-    <t>빅뱅 - 거짓말</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1542,8 +1535,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2BF6A5C0-E0FD-DD46-9FFE-430904D52814}" name="표2" displayName="표2" ref="A1:F50" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:F50" xr:uid="{54CDF0FF-2FD1-6D43-85D1-0F507A330380}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2BF6A5C0-E0FD-DD46-9FFE-430904D52814}" name="표2" displayName="표2" ref="A1:F49" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:F49" xr:uid="{54CDF0FF-2FD1-6D43-85D1-0F507A330380}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BE3DA650-EFE3-C04E-A4C6-95F7F1DC9B3A}" name="music" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{8511FB43-70E7-2343-8C5C-67AB14F5EB52}" name="youtube_link" dataDxfId="5"/>
@@ -1867,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF46CBA-3AB6-8345-9591-91CEDDEB0145}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1966,7 +1959,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>94</v>
@@ -2032,10 +2025,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C15" s="6">
         <v>1020</v>
@@ -2043,10 +2036,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C16" s="6">
         <v>1020</v>
@@ -2054,10 +2047,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C17" s="6">
         <v>1020</v>
@@ -2065,10 +2058,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C18" s="6">
         <v>1020</v>
@@ -2076,10 +2069,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C19" s="6">
         <v>1020</v>
@@ -2087,10 +2080,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C20" s="6">
         <v>1020</v>
@@ -2098,10 +2091,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C21" s="6">
         <v>1020</v>
@@ -2131,10 +2124,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C24" s="6">
         <v>25</v>
@@ -2142,10 +2135,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C25" s="6">
         <v>25</v>
@@ -2153,10 +2146,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C26" s="6">
         <v>25</v>
@@ -2164,10 +2157,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C27" s="6">
         <v>25</v>
@@ -2175,10 +2168,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C28" s="6">
         <v>25</v>
@@ -2270,24 +2263,24 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
         <v>240</v>
-      </c>
-      <c r="D2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" t="s">
         <v>249</v>
-      </c>
-      <c r="D3" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2306,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707A2EA3-D63D-5541-BC5E-A501620F32F0}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2449,7 +2442,7 @@
         <v>148</v>
       </c>
       <c r="F1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3002,10 +2995,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5516A2F-F380-5F4E-A4CE-A6FEF40DD8EB}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3030,15 +3023,15 @@
         <v>146</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -3047,10 +3040,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3059,10 +3052,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3071,10 +3064,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3083,10 +3076,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3095,10 +3088,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3107,10 +3100,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3119,10 +3112,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3131,10 +3124,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3143,10 +3136,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3155,10 +3148,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3167,10 +3160,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3179,10 +3172,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3191,10 +3184,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3203,10 +3196,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3215,10 +3208,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3227,10 +3220,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3239,10 +3232,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3250,12 +3243,8 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>182</v>
-      </c>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3492,14 +3481,6 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/DB/music list_v1.xlsx
+++ b/src/DB/music list_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ww/Desktop/2019-cap1-2019_10/src/DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFCCA0E-9578-D346-A369-CA15A741E2C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B45E10-033E-924E-93C2-908DE0507118}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6400" yWindow="460" windowWidth="22400" windowHeight="15960" activeTab="2" xr2:uid="{BBF66DE9-581D-6044-AA23-DDD04E8B232C}"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="13440" windowHeight="15960" firstSheet="3" activeTab="8" xr2:uid="{BBF66DE9-581D-6044-AA23-DDD04E8B232C}"/>
   </bookViews>
   <sheets>
     <sheet name="happiness" sheetId="13" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="618">
   <si>
     <t>youtube_link</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56,83 +56,7 @@
     <t>https://youtu.be/DBMZ_rk3EzA</t>
   </si>
   <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>뽀로로와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>노래해요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바라밤</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://youtu.be/At6ew4QcalU</t>
-  </si>
-  <si>
-    <t>시크릿 쥬쥬 - 'GO!GO!'</t>
   </si>
   <si>
     <t>https://youtu.be/zHD5gN9q-8s</t>
@@ -329,33 +253,16 @@
     <t>https://youtu.be/lz4E1tQ3aYs</t>
   </si>
   <si>
-    <t>상어 세 마리 | 아빠 엄마 아기 상어 뚜루뚜</t>
-  </si>
-  <si>
     <t>https://youtu.be/QsGZFva3eQ8</t>
   </si>
   <si>
-    <t>[카드캡터체리 : 클리어카드] 오프닝♪ CLEAR</t>
-  </si>
-  <si>
     <t>https://youtu.be/tVU53nGuPGw</t>
   </si>
   <si>
-    <t>[타요 1기] 꼬마버스 타요 ♪ (오프닝 타이틀 곡)</t>
-  </si>
-  <si>
     <t>https://youtu.be/E0W5sJZ2d64</t>
   </si>
   <si>
-    <t>[뽀로로 1기] 오프닝 송♪ 노는 게 제일 좋아♪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://youtu.be/761ae_KDg_Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상어가족 | 아기상어 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://youtu.be/eToI-YtTiHM</t>
@@ -799,13 +706,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>열5</t>
-  </si>
-  <si>
-    <t>tag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>tag2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1033,9 +933,6 @@
   <si>
     <t>티아라 - Lie (거짓말)</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>열6</t>
   </si>
   <si>
     <t>subclass</t>
@@ -1137,10 +1034,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#이별</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://youtu.be/avoCSYEWhR0</t>
   </si>
   <si>
@@ -1170,15 +1063,1812 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#위로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>지동국 - 다 거짓말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/sii5kkejyUM</t>
+  </si>
+  <si>
+    <t>CHEEZE - Just as a Lie (거짓말처럼)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/sv1tcsVoHlw</t>
+  </si>
+  <si>
+    <t>https://youtu.be/COWvLZ7HDqA</t>
+  </si>
+  <si>
+    <t>혜이니 - RED LIE(새빨간 거짓말)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서인영 - 거짓말 (Feat. 칸토)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/AqczmstPAG8</t>
+  </si>
+  <si>
+    <t>B1A4 - A lie(거짓말이야)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/x67c_lYqTQ8</t>
+  </si>
+  <si>
+    <t>오브로젝트 - 거짓말이잖아 (Feat. 이현우)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/TQEiXg2K-kU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">빅스LR (VIXX LR) - Beautiful Liar </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/55I7BIcysFQ</t>
+  </si>
+  <si>
+    <t>뽀로로 1기 - 노는 게 제일 좋아(오프닝)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상어가족 - 아기상어 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카드캡터체리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 오프닝송</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아빠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엄마</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뚜루뚜</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽀로로와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노래해요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기 - 바라밤</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시크릿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쥬쥬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - GO!GO!</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/WYh13B59VBE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공룡메카드 엔딩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/6bFzk152_pE</t>
+  </si>
+  <si>
+    <t>공룡메카드 오프닝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/J-zRSMGYZrw</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헬로카봇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쿵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엔딩</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬로카봇 쿵 오프닝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/NGgWosi99og</t>
+  </si>
+  <si>
+    <t>터닝메카드W  오프닝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/IdfO5UBrne4</t>
+  </si>
+  <si>
+    <t>고고다이노 오프닝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/RNWZ6sfBBpY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/_WRgKiw9VV0</t>
+  </si>
+  <si>
+    <t>프리파라 오프닝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/_1ysUlV4p_0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/vwukh1Gvw9U</t>
+  </si>
+  <si>
+    <t>코코몽 시즌3 엔딩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frozen(겨울왕국) - Let It Go</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/4UDMG6cwY5o</t>
+  </si>
+  <si>
+    <t>https://youtu.be/OnKAYS5VbGU</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두다다쿵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Duda &amp; Dada) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타이틀</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또봇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐험대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>태권전사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">K </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오프닝</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꼬마버스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타요 오프닝</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/IdjcGAarS4c</t>
+  </si>
+  <si>
+    <t>놀이터 구조대 뽀잉 오프닝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/Tux_zI5JKw4</t>
+  </si>
+  <si>
+    <t>최강전사 미니특공대 오프닝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬로카봇 엔지니어 크루송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/7abTBSDdN4Y</t>
+  </si>
+  <si>
+    <t>틴탑 - 미치겠어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카라 - STEP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이브돌스 - 이러쿵저러쿵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS501 - UR MAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드벨벳 - Power Up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드벨벳 - 행복(happiness)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/JFgv8bKfxEs</t>
+  </si>
+  <si>
+    <t>https://youtu.be/glXgSSOKlls</t>
+  </si>
+  <si>
+    <t>레드벨벳 - Ice Cream Cake</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상큼발랄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신나는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드벨벳 - 러시안 룰렛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/QslJYDX3o8s</t>
+  </si>
+  <si>
+    <t>발랄한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드벨벳 - Dumb Dumb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/XGdbaEDVWp0</t>
+  </si>
+  <si>
+    <t>TWICE(트와이스) - OOH-AHH하게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/0rtV5esQT6I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWICE(트와이스) - CHEER UP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/c7rCyll5AeY</t>
+  </si>
+  <si>
+    <t>Wanna One (워너원) - 에너제틱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/EVaV7AwqBWg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NIld_iEc67s</t>
+  </si>
+  <si>
+    <t>PRODUCE 101 (프로듀스 101) - PICK ME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/BiorIyrjTHc</t>
+  </si>
+  <si>
+    <t>댄스댄스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCE 101 (프로듀스101 시즌2) - 나야나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY - DADDY (feat. CL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/FrG4TEcSuRg</t>
+  </si>
+  <si>
+    <t>PSY - GENTLEMAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/ASO_zypdnsQ</t>
+  </si>
+  <si>
+    <t>PSY - New Face</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/OwJPPaEyqhI</t>
+  </si>
+  <si>
+    <t>PSY - I LUV IT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/Xvjnoagk6GU</t>
+  </si>
+  <si>
+    <t>PSY - 나팔바지(NAPAL BAJI)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/tF27TNC_4pc</t>
+  </si>
+  <si>
+    <t>PSY - HANGOVER (feat. Snoop Dogg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/HkMNOlYcpHg</t>
+  </si>
+  <si>
+    <t>PSY - RIGHT NOW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/UmHdefsaL6I</t>
+  </si>
+  <si>
+    <t>임창정-문을 여시오</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/FLPLgJqeZJw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">룰라 - 날개 잃은 천사 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투투 - 일과 이분의 일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자자 - 버스안에서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJ DOC - 여름이야기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핑클 - 영원한 사랑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김성재 - 말하자면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현진영 - 흐린 기억속의 그대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서태지와아이들 - 환상속에 그대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>듀스 - 여름안에서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서태지와 아이들 - 난 알아요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클론 - 쿵따리 샤바라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>젝스키스 - Com' Back</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박미경 - 이브의 경고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코요테 - 만남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바 - 왜불러</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S.E.S - I'm your girl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨 - 애상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">터보 - 스키장에서 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨 - 슬퍼지려 하기전에</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지누션 - A-Yo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지누션 - 전화번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지누션 - 말해줘(feat.엄정화)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S.E.S - 꿈을 모아서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건모 - 잘못된 만남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건모 - 잠 못 드는 밤 비는 내리고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>렉시 - 애송이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현정 - 멍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>렉시 - Let Me Dance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지윤 - 난 사랑에 빠졌죠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백지영 - Dash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지윤 - 소중한 사랑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보아 - No.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄정화 - Poison</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄정화 - 페스티벌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이효리 - 10minute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">채연 - 둘이서 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨 -운명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진영 - 어머님이 누구니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJ DOC - DOC와 춤을</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.O.T - Candy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.O.T - 행복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클론 - 초련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/mjk-kX2plc4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NokWzy3USWo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/R3DbYFoqGr8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/G5klng66cjE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ly7qcY46ofw</t>
+  </si>
+  <si>
+    <t>https://youtu.be/SyTtCQnESZo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Q1_BRuLhzN4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/-kwkkLyzwp8</t>
+  </si>
+  <si>
+    <t>서태지와 아이들 - 컴백홈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/Cr-n5dbMSBM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ZpQxOHdPD2E</t>
+  </si>
+  <si>
+    <t>https://youtu.be/32KE_WdNDAA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1Dx0lIdl80I</t>
+  </si>
+  <si>
+    <t>https://youtu.be/-Scbm-Y5YdQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cSR-LBBuXQc</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Mje7wkRby9U</t>
+  </si>
+  <si>
+    <t>https://youtu.be/PSM_VxctljQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WpmTLDtr4qY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0g-_cDxZzMg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/aT6rpIvrV5g</t>
+  </si>
+  <si>
+    <t>https://youtu.be/2__Unj3xFHM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wBNqWzuPVCk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/toHeLIphvTU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Ve0Ygq0O2Ts</t>
+  </si>
+  <si>
+    <t>https://youtu.be/w24jzmf82NU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Kd3j29vXr9s</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bt5Ns50dfMM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/-9CIPoQCy34</t>
+  </si>
+  <si>
+    <t>https://youtu.be/dZ1Rgw3-N90</t>
+  </si>
+  <si>
+    <t>https://youtu.be/zbMlQCsDFCw</t>
+  </si>
+  <si>
+    <t>https://youtu.be/V2FI2OE_cz8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/GRjzmxYuSo4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/lei37YN54nI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/X6cYhLZuLhI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kIDBmmeWZcw</t>
+  </si>
+  <si>
+    <t>스페이스A - 섹시한 남자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/hmTJSBW0d8Y</t>
+  </si>
+  <si>
+    <t>https://youtu.be/K8sXHXusDf0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/iKdr44yEBQU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/BY3hWmQGsFY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/IzIG2RY-MJc</t>
+  </si>
+  <si>
+    <t>DJ DOC - Run To You</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/tEpLqkMRY6k</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Z4R8BAF0vwo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/fNr1x5gzBsI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kv7bgNNX0K0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/O7A-WIBoHjA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kUGQ7Tz4os0</t>
+  </si>
+  <si>
+    <t>T-ARA(티아라) - Roly Poly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/afwK0Mv0IsY</t>
+  </si>
+  <si>
+    <t>방탄소년단 - 불타오르네</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인피니트 - 내꺼하자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WINNER - REALLY REALLY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXID - 아예(Ah Yeah)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼빨간 사춘기 - 여행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄정화 - D.I.S.C.O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이비 - 유혹의 소나타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>철이와 미애 - 너는 왜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거북이 - 빙고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거북이 - 비행기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/mIrEcebqm20</t>
+  </si>
+  <si>
+    <t>https://youtu.be/C0USKQRvuIc</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Q_plceCKQX8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/62I7bOBfvw8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cNZk2y57jzs</t>
+  </si>
+  <si>
+    <t>https://youtu.be/EKtxtDG2NkY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/zYoYoBtLqOY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/z4sN05-xIs4</t>
+  </si>
+  <si>
+    <t>걸스데이 - Ring My Bell(링마벨)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/YN04xEbHdsQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ALj5MKjy2BU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ESpZx1XhBPk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/4tBnF46ybZk</t>
+  </si>
+  <si>
+    <t>iKON - BLING BLING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/GUFw8wTzF_I</t>
+  </si>
+  <si>
+    <t>https://youtu.be/tYI5CriE6XU</t>
+  </si>
+  <si>
+    <t>iKON - 리듬 타(RHYTHM TA)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iKON - 덤앤더머(DUMB&amp;DUMBER)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daler Mehndi - Tunak Tunak Tun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/vTIIMJ9tUc8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ao58vQDMVlQ</t>
+  </si>
+  <si>
+    <t>노라조 - 카레</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/ezwgRTy8R8U</t>
+  </si>
+  <si>
+    <t>노라조 - 니 팔자야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노라조 - 형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸이 - 아버지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처진 달팽이 - 말하는대로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gary - 바람이나 좀 쐐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YB -  흰수염고래</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YB -  나는나비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이문세 - 알수없는 인생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤종신 - 좋니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subclass_s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리미와 감자 - 치킨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리미와 감자 -  홍콩반점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚱스 - 고칼로리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOZ - 내 마음속의 자메이카</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코믹송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이글파이브 - 오징어 외계인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/cLdsFLRIIzY</t>
+  </si>
+  <si>
+    <t>외계인송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃긴가사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리의 시인들 - 빙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜룹뚜룹뚜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/HRkAZ2Zl_ic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유재석 - 메뚜기월드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뚜기송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/O6BJiije6m4</t>
+  </si>
+  <si>
+    <t>노라조 - 사이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진영 - 살아있네</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/pJc2ypdWvEI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3N8c1t1QTDI</t>
+  </si>
+  <si>
+    <t>UV - 이태원 프리덤 (with 박진영)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>형돈이와 대준이 - 올림픽대로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/ols76e4FZwI</t>
+  </si>
+  <si>
+    <t>차막힌다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>형돈이와 대준이 -  안좋을때 들으면 더 안좋은 노래</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/KJSXolyj4DM</t>
+  </si>
+  <si>
+    <t>아니아니아니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코믹가사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>형돈이와 대준이 - Rap Impossible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/G_0A9iO7D7o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕밤빵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">J.E.B - 전국 Handclap 자랑 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/Y0xMbCp8t4s</t>
+  </si>
+  <si>
+    <t>전국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마미손 - 소년점프(feat.배기성)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/D3ZFtSoWtRc</t>
+  </si>
+  <si>
+    <t>계획대로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>되고있어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드클립</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/uHj51x8ksjo</t>
+  </si>
+  <si>
+    <t>짜장하나요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/lT8PE17B5eE</t>
+  </si>
+  <si>
+    <t>치킨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/3zoJloWG5dg</t>
+  </si>
+  <si>
+    <t>웃긴노래</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이어트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚱스 - 쩔어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/rK_oDNzxYTk</t>
+  </si>
+  <si>
+    <t>쩌러</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/JAxp6RpWInE</t>
+  </si>
+  <si>
+    <t>비컴퍼니 - 내게 강같은 평화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/IH5hj9PzA3U</t>
+  </si>
+  <si>
+    <t>마음의안정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴다운</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/QFIVLlXnddo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/xRbPAVnqtcs</t>
+  </si>
+  <si>
+    <t>청량한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>떠나고싶은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/egqDPipqIAg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/tsN-MkpiZB0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ZRebVq_TseY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/aiHSVQy9xN8</t>
+  </si>
+  <si>
+    <t>라붐 - 상상더하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/m0o7fbNKhpM</t>
+  </si>
+  <si>
+    <t>구구단 오구오구 - ICE CHU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/ZN6aso7870c</t>
+  </si>
+  <si>
+    <t>통통튀는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현아 - 어때?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/y882AFjrSOM</t>
+  </si>
+  <si>
+    <t>댄스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주소녀 - HAPPY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청하 - Roller Coaster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마마무 - 넌 is 뭔들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀시대 - PARTY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤이니 - Dream Girl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자친구 - 여름여름해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권진아 - 끝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양다일 - 미안해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임창정 - 소주한잔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김조한 - 사랑에 빠지고 싶다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lzi - 응급실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">박효신 - 사랑한 후에 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나윤권 - 나였으면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버즈 - 가시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라운 아이즈 - 벌써일년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김범수 - 보고싶다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">박정현 - 꿈에 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동률 - 다시 사랑한다 말할까</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤하 - 오늘 헤어졌어요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김광진 - 편지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이적 - 다행이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V.One - 그런가봐요…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바비킴 - 사랑..그놈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건모 - 아름다운 이별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모세 - 사랑인걸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이브 - 그남자 그여자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화요비 - 그런일은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱅크 - 가질 수 없는 너</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진영 - 대낮에 한 이별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백지영 - 사랑안해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김연우 - 내가 너의 곁에 잠시 살았다는걸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임재범 - 너를 위해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유재하 - 사랑하기 때문에</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성우 - 서시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이은미 - 애인 있어요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환희 - 가슴 아파도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건모 - 혼자만의 사랑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 -안부(duet with 나윤권)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패닉 - 달팽이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현식 - 내사랑 내곁에</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현식 - 비처럼 음악처럼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이트 - 사랑을 잃고 난 노래하네</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신효범 - 난 널 사랑해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용필 - 이젠 그랬으면 좋겠네</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이트 - 잘가요 내사랑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>황인욱 - 취하고싶다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박보람 - 애쓰지마요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼데이키즈 - 가을안부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG 워너비 - Timeless</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤 - 180도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한동근 - 이 소설의 끝을 다시 써보려 해 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴킴 - 모든 날, 모든 순간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멜로망스 - You</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권진아 ,샘김 - 여기까지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박원 - 나를 좋아하지 않는 그대에게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIN - 너만 없다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴킴 - 비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지아 - 술 한잔 해요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀치 - 밤이 되니까</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이문세 - 옛 사랑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정인 - 미워요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박원 - all of my life</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이적 - 걱정말아요 그대 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼빨간 사춘기 - 남이 될 수 있을까</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤 - 꿈처럼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이오아이 - 소나기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박원 - 노력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/En3KrO3_OEM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1icPJAhI2TA</t>
+  </si>
+  <si>
+    <t>양다일 - 사랑했던걸까</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/wbZAoMgmiPQ</t>
+  </si>
+  <si>
+    <t>케이시 - 그때가 좋았어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/29GJW2EwZmc</t>
+  </si>
+  <si>
+    <t>https://youtu.be/gcgNaERtD90</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cWvE3P6AWSA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/rDG9I9nx0QU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/TMTTNDbqMMw</t>
+  </si>
+  <si>
+    <t>https://youtu.be/fmiEBlS5dCk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/iZ3qnmeFc0Y</t>
+  </si>
+  <si>
+    <t>https://youtu.be/uid4xGVmJt8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/70HLl3Ji9V8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1254,6 +2944,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1316,7 +3022,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1347,13 +3053,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="출력" xfId="1" builtinId="21"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="8">
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1384,45 +3126,6 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1437,30 +3140,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BFDF5986-EC2A-154F-8169-0389FA75F2DA}" name="표3" displayName="표3" ref="A1:C63" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" headerRowCellStyle="출력">
-  <autoFilter ref="A1:C63" xr:uid="{86194186-CC08-0748-99C7-040F7A8088BE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C41">
-    <sortCondition descending="1" ref="C1:C63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BFDF5986-EC2A-154F-8169-0389FA75F2DA}" name="표3" displayName="표3" ref="A1:E150" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1" headerRowCellStyle="출력">
+  <autoFilter ref="A1:E150" xr:uid="{86194186-CC08-0748-99C7-040F7A8088BE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
+    <sortCondition descending="1" ref="E1:E63"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8C6C4511-B0B0-554A-BE7C-AF2152C9E8B1}" name="music"/>
     <tableColumn id="2" xr3:uid="{65E93339-6043-C949-A529-A9D9CB640EF6}" name="youtube_link"/>
-    <tableColumn id="3" xr3:uid="{BF88849C-3518-B34B-BFDD-B0AD09A9BEE9}" name="age"/>
+    <tableColumn id="8" xr3:uid="{4FC2288C-2668-5441-9A84-8BA6E0A81E85}" name="age"/>
+    <tableColumn id="7" xr3:uid="{D826A273-3C5F-9E49-9B3D-737E174A7A1E}" name="tag1"/>
+    <tableColumn id="3" xr3:uid="{BF88849C-3518-B34B-BFDD-B0AD09A9BEE9}" name="tag2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{94711283-FB42-0443-8C05-6EFEA6A05877}" name="표5" displayName="표5" ref="A1:E86" totalsRowShown="0">
-  <autoFilter ref="A1:E86" xr:uid="{09CBC797-BCF0-5240-B15F-79D6A49E7116}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E3">
-    <sortCondition ref="D1:D86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{94711283-FB42-0443-8C05-6EFEA6A05877}" name="표5" displayName="표5" ref="A1:F151" totalsRowShown="0">
+  <autoFilter ref="A1:F151" xr:uid="{09CBC797-BCF0-5240-B15F-79D6A49E7116}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F3">
+    <sortCondition ref="E1:E86"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9980AD31-18B7-6747-8279-D06E20F8BF8D}" name="music"/>
     <tableColumn id="2" xr3:uid="{97953C3D-898E-2D49-9F29-94BC049448E5}" name="youtube_link"/>
     <tableColumn id="3" xr3:uid="{1FB3AD09-B3E7-CF43-BF82-4E9B1869D784}" name="age"/>
+    <tableColumn id="6" xr3:uid="{FEC9A5A4-DD08-344F-BFED-7AB1139AE35C}" name="subclass_s"/>
     <tableColumn id="4" xr3:uid="{25ECFA5C-F2F3-B94A-BCFF-82D9AB9CFA18}" name="tag1"/>
     <tableColumn id="5" xr3:uid="{0607CE8A-8F28-4A41-A6A2-165D7CA10B70}" name="tag2"/>
   </tableColumns>
@@ -1535,27 +3241,22 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2BF6A5C0-E0FD-DD46-9FFE-430904D52814}" name="표2" displayName="표2" ref="A1:F49" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:F49" xr:uid="{54CDF0FF-2FD1-6D43-85D1-0F507A330380}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BE3DA650-EFE3-C04E-A4C6-95F7F1DC9B3A}" name="music" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{8511FB43-70E7-2343-8C5C-67AB14F5EB52}" name="youtube_link" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{9E5AEA9F-C26F-4840-A16E-33FB777EFE78}" name="age" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{4E933333-CCF1-374B-8E2E-7BC97A1DD1AC}" name="tag" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{2D4F0E14-EFD2-FA48-BFA0-118BC7A6DCD6}" name="열5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{B536B6B5-042D-6C49-BD53-EB73D212CEE2}" name="열6" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2BF6A5C0-E0FD-DD46-9FFE-430904D52814}" name="표2" displayName="표2" ref="A1:B49" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:B49" xr:uid="{54CDF0FF-2FD1-6D43-85D1-0F507A330380}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{BE3DA650-EFE3-C04E-A4C6-95F7F1DC9B3A}" name="music" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8511FB43-70E7-2343-8C5C-67AB14F5EB52}" name="youtube_link" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35B28E00-E684-5C44-AE01-D103B0B75584}" name="표4" displayName="표4" ref="A1:C22" totalsRowShown="0">
-  <autoFilter ref="A1:C22" xr:uid="{D78C75CA-3F2A-2045-B440-72BEC6BDF510}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8324F979-F3AF-E747-92A9-6B5902332458}" name="music" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35B28E00-E684-5C44-AE01-D103B0B75584}" name="표4" displayName="표4" ref="A1:B37" totalsRowShown="0">
+  <autoFilter ref="A1:B37" xr:uid="{D78C75CA-3F2A-2045-B440-72BEC6BDF510}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8324F979-F3AF-E747-92A9-6B5902332458}" name="music" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{A1DBC9FA-01E7-7444-AF5C-227387E3EC31}" name="youtube_link"/>
-    <tableColumn id="3" xr3:uid="{21946E1A-094A-0A4C-A288-3651D0398791}" name="age"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1858,18 +3559,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF46CBA-3AB6-8345-9591-91CEDDEB0145}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -1879,339 +3583,1360 @@
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="7">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="6">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="6">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="6">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C7" s="6">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="6">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C9" s="6">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="6">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C11" s="6">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
         <v>91</v>
       </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C12" s="7">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="6">
+        <v>20</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="6">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>230</v>
-      </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C15" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C16" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C17" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C18" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="6">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="6">
+        <v>20</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>222</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>221</v>
-      </c>
-      <c r="B20" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>232</v>
-      </c>
-      <c r="B21" t="s">
-        <v>233</v>
-      </c>
       <c r="C21" s="6">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C22" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>86</v>
+      </c>
+      <c r="C23" s="7">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="6">
+        <v>20</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="6">
+        <v>20</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="6">
+        <v>20</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="6">
+        <v>20</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>235</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C24" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C25" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>242</v>
-      </c>
-      <c r="B26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C26" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C27" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>246</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="C28" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B29" t="s">
+        <v>437</v>
+      </c>
+      <c r="C29" s="6">
+        <v>20</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" t="s">
+        <v>438</v>
+      </c>
+      <c r="C30" s="6">
+        <v>20</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>440</v>
+      </c>
+      <c r="B31" t="s">
+        <v>439</v>
+      </c>
+      <c r="C31" s="6">
+        <v>20</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>289</v>
+      </c>
+      <c r="B32" t="s">
+        <v>441</v>
+      </c>
+      <c r="C32" s="6">
+        <v>20</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>526</v>
+      </c>
+      <c r="C33" s="7">
+        <v>20</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>290</v>
+      </c>
+      <c r="B34" t="s">
+        <v>527</v>
+      </c>
+      <c r="C34" s="6">
+        <v>30</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>529</v>
+      </c>
+      <c r="B35" t="s">
+        <v>530</v>
+      </c>
+      <c r="C35" s="6">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>523</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>291</v>
+      </c>
+      <c r="B36" t="s">
+        <v>528</v>
+      </c>
+      <c r="C36" s="6">
+        <v>20</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>292</v>
+      </c>
+      <c r="B37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" s="6">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>295</v>
+      </c>
+      <c r="B38" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="6">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>296</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>298</v>
+      </c>
+      <c r="B39" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" s="6">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>301</v>
+      </c>
+      <c r="B40" t="s">
+        <v>302</v>
+      </c>
+      <c r="C40" s="6">
+        <v>20</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C41" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>305</v>
+      </c>
+      <c r="B42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C42" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>307</v>
+      </c>
+      <c r="B43" t="s">
+        <v>308</v>
+      </c>
+      <c r="C43" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>313</v>
+      </c>
+      <c r="B44" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>310</v>
+      </c>
+      <c r="B45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" s="6">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>314</v>
+      </c>
+      <c r="B46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47" t="s">
+        <v>317</v>
+      </c>
+      <c r="C47" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>318</v>
+      </c>
+      <c r="B48" t="s">
+        <v>319</v>
+      </c>
+      <c r="C48" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>320</v>
+      </c>
+      <c r="B49" t="s">
+        <v>321</v>
+      </c>
+      <c r="C49" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>322</v>
+      </c>
+      <c r="B50" t="s">
+        <v>323</v>
+      </c>
+      <c r="C50" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>324</v>
+      </c>
+      <c r="B51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>326</v>
+      </c>
+      <c r="B52" t="s">
+        <v>327</v>
+      </c>
+      <c r="C52" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>328</v>
+      </c>
+      <c r="B53" t="s">
+        <v>329</v>
+      </c>
+      <c r="C53" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>367</v>
+      </c>
+      <c r="B54" t="s">
+        <v>419</v>
+      </c>
+      <c r="C54" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>420</v>
+      </c>
+      <c r="B55" t="s">
+        <v>421</v>
+      </c>
+      <c r="C55" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>422</v>
+      </c>
+      <c r="B56" t="s">
+        <v>442</v>
+      </c>
+      <c r="C56" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>423</v>
+      </c>
+      <c r="B57" t="s">
+        <v>443</v>
+      </c>
+      <c r="C57" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>424</v>
+      </c>
+      <c r="B58" t="s">
+        <v>444</v>
+      </c>
+      <c r="C58" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>425</v>
+      </c>
+      <c r="B59" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>426</v>
+      </c>
+      <c r="B60" t="s">
+        <v>522</v>
+      </c>
+      <c r="D60" t="s">
+        <v>523</v>
+      </c>
+      <c r="E60" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>445</v>
+      </c>
+      <c r="B61" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>449</v>
+      </c>
+      <c r="B62" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>448</v>
+      </c>
+      <c r="B63" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>484</v>
+      </c>
+      <c r="B64" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>531</v>
+      </c>
+      <c r="B65" t="s">
+        <v>532</v>
+      </c>
+      <c r="D65" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>534</v>
+      </c>
+      <c r="B66" t="s">
+        <v>535</v>
+      </c>
+      <c r="D66" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>330</v>
+      </c>
+      <c r="B101" t="s">
+        <v>372</v>
+      </c>
+      <c r="C101">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>331</v>
+      </c>
+      <c r="B102" t="s">
+        <v>373</v>
+      </c>
+      <c r="C102">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>332</v>
+      </c>
+      <c r="B103" t="s">
+        <v>374</v>
+      </c>
+      <c r="C103">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>333</v>
+      </c>
+      <c r="B104" t="s">
+        <v>375</v>
+      </c>
+      <c r="C104">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>369</v>
+      </c>
+      <c r="B105" t="s">
+        <v>376</v>
+      </c>
+      <c r="C105">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>334</v>
+      </c>
+      <c r="B106" t="s">
+        <v>377</v>
+      </c>
+      <c r="C106">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>335</v>
+      </c>
+      <c r="B107" t="s">
+        <v>378</v>
+      </c>
+      <c r="C107">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>336</v>
+      </c>
+      <c r="B108" t="s">
+        <v>379</v>
+      </c>
+      <c r="C108">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>337</v>
+      </c>
+      <c r="B109" t="s">
+        <v>381</v>
+      </c>
+      <c r="C109">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>338</v>
+      </c>
+      <c r="B110" t="s">
+        <v>382</v>
+      </c>
+      <c r="C110">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>339</v>
+      </c>
+      <c r="B111" t="s">
+        <v>383</v>
+      </c>
+      <c r="C111">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>340</v>
+      </c>
+      <c r="B112" t="s">
+        <v>384</v>
+      </c>
+      <c r="C112">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>341</v>
+      </c>
+      <c r="B113" t="s">
+        <v>385</v>
+      </c>
+      <c r="C113">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>342</v>
+      </c>
+      <c r="B114" t="s">
+        <v>386</v>
+      </c>
+      <c r="C114">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>343</v>
+      </c>
+      <c r="B115" t="s">
+        <v>387</v>
+      </c>
+      <c r="C115">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>344</v>
+      </c>
+      <c r="B116" t="s">
+        <v>388</v>
+      </c>
+      <c r="C116">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>345</v>
+      </c>
+      <c r="B117" t="s">
+        <v>389</v>
+      </c>
+      <c r="C117">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>346</v>
+      </c>
+      <c r="B118" t="s">
+        <v>390</v>
+      </c>
+      <c r="C118">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>347</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C119">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>348</v>
+      </c>
+      <c r="B120" t="s">
+        <v>392</v>
+      </c>
+      <c r="C120">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>56</v>
+      </c>
+      <c r="B121" t="s">
+        <v>394</v>
+      </c>
+      <c r="C121">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>349</v>
+      </c>
+      <c r="B122" t="s">
+        <v>393</v>
+      </c>
+      <c r="C122">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>350</v>
+      </c>
+      <c r="B123" t="s">
+        <v>395</v>
+      </c>
+      <c r="C123">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>351</v>
+      </c>
+      <c r="B124" t="s">
+        <v>396</v>
+      </c>
+      <c r="C124">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>352</v>
+      </c>
+      <c r="B125" t="s">
+        <v>397</v>
+      </c>
+      <c r="C125">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>353</v>
+      </c>
+      <c r="B126" t="s">
+        <v>398</v>
+      </c>
+      <c r="C126">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>354</v>
+      </c>
+      <c r="B127" t="s">
+        <v>399</v>
+      </c>
+      <c r="C127">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>355</v>
+      </c>
+      <c r="B128" t="s">
+        <v>400</v>
+      </c>
+      <c r="C128">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>356</v>
+      </c>
+      <c r="B129" t="s">
+        <v>401</v>
+      </c>
+      <c r="C129">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>357</v>
+      </c>
+      <c r="B130" t="s">
+        <v>402</v>
+      </c>
+      <c r="C130">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>358</v>
+      </c>
+      <c r="B131" t="s">
+        <v>403</v>
+      </c>
+      <c r="C131">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>360</v>
+      </c>
+      <c r="B132" t="s">
+        <v>404</v>
+      </c>
+      <c r="C132">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>359</v>
+      </c>
+      <c r="B133" t="s">
+        <v>405</v>
+      </c>
+      <c r="C133">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B134" t="s">
+        <v>405</v>
+      </c>
+      <c r="C134">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>407</v>
+      </c>
+      <c r="B135" t="s">
+        <v>406</v>
+      </c>
+      <c r="C135">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>362</v>
+      </c>
+      <c r="B136" t="s">
+        <v>408</v>
+      </c>
+      <c r="C136">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>363</v>
+      </c>
+      <c r="B137" t="s">
+        <v>409</v>
+      </c>
+      <c r="C137">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>364</v>
+      </c>
+      <c r="B138" t="s">
+        <v>410</v>
+      </c>
+      <c r="C138">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>365</v>
+      </c>
+      <c r="B139" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>413</v>
+      </c>
+      <c r="B140" t="s">
+        <v>412</v>
+      </c>
+      <c r="C140">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>366</v>
+      </c>
+      <c r="B141" t="s">
+        <v>414</v>
+      </c>
+      <c r="C141">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>368</v>
+      </c>
+      <c r="B142" t="s">
+        <v>415</v>
+      </c>
+      <c r="C142">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>370</v>
+      </c>
+      <c r="B143" t="s">
+        <v>416</v>
+      </c>
+      <c r="C143">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>371</v>
+      </c>
+      <c r="B144" t="s">
+        <v>417</v>
+      </c>
+      <c r="C144">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>380</v>
+      </c>
+      <c r="B145" t="s">
+        <v>418</v>
+      </c>
+      <c r="C145">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>430</v>
+      </c>
+      <c r="B146" t="s">
+        <v>432</v>
+      </c>
+      <c r="C146">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>427</v>
+      </c>
+      <c r="B147" t="s">
+        <v>433</v>
+      </c>
+      <c r="C147">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>428</v>
+      </c>
+      <c r="B148" t="s">
+        <v>434</v>
+      </c>
+      <c r="C148">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>429</v>
+      </c>
+      <c r="B149" t="s">
+        <v>435</v>
+      </c>
+      <c r="C149">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>431</v>
+      </c>
+      <c r="B150" t="s">
+        <v>436</v>
+      </c>
+      <c r="C150">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2233,18 +4958,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1970D495-D607-5F43-B695-7B869A0FDD27}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2255,32 +4982,447 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>466</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>228</v>
+      </c>
+      <c r="E2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" t="s">
-        <v>249</v>
+        <v>236</v>
+      </c>
+      <c r="E3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B4" t="s">
+        <v>604</v>
+      </c>
+      <c r="E4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B9" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B10" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B11" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>587</v>
+      </c>
+      <c r="B12" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>588</v>
+      </c>
+      <c r="B13" t="s">
+        <v>615</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>589</v>
+      </c>
+      <c r="B14" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>590</v>
+      </c>
+      <c r="B15" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +5441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707A2EA3-D63D-5541-BC5E-A501620F32F0}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -2319,10 +5461,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2336,10 +5478,290 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6139EF10-632F-A242-A006-F6659ADFC8B6}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B6" t="s">
+        <v>506</v>
+      </c>
+      <c r="D6" t="s">
+        <v>507</v>
+      </c>
+      <c r="E6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" t="s">
+        <v>510</v>
+      </c>
+      <c r="D7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" t="s">
+        <v>518</v>
+      </c>
+      <c r="D8" t="s">
+        <v>519</v>
+      </c>
+      <c r="E8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B9" t="s">
+        <v>516</v>
+      </c>
+      <c r="D9" t="s">
+        <v>471</v>
+      </c>
+      <c r="E9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B10" t="s">
+        <v>474</v>
+      </c>
+      <c r="D10" t="s">
+        <v>475</v>
+      </c>
+      <c r="E10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D12" t="s">
+        <v>481</v>
+      </c>
+      <c r="E12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>483</v>
+      </c>
+      <c r="B13" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B15" t="s">
+        <v>489</v>
+      </c>
+      <c r="D15" t="s">
+        <v>490</v>
+      </c>
+      <c r="E15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>491</v>
+      </c>
+      <c r="B16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D16" t="s">
+        <v>493</v>
+      </c>
+      <c r="E16" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>495</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D17" t="s">
+        <v>497</v>
+      </c>
+      <c r="E17" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>498</v>
+      </c>
+      <c r="B18" t="s">
+        <v>499</v>
+      </c>
+      <c r="D18" t="s">
+        <v>500</v>
+      </c>
+      <c r="E18" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B19" t="s">
+        <v>502</v>
+      </c>
+      <c r="D19" t="s">
+        <v>503</v>
+      </c>
+      <c r="E19" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>513</v>
+      </c>
+      <c r="B20" t="s">
+        <v>514</v>
+      </c>
+      <c r="D20" t="s">
+        <v>476</v>
+      </c>
+      <c r="E20" t="s">
+        <v>515</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{DBDB389F-3B0C-0143-89C6-E0114D91D2F1}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{17C5901E-AA67-BA46-BE79-26A4CAD2C9BB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5D98FA-753F-B249-9583-2FF1F80C4C80}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E86"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2358,49 +5780,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5D98FA-753F-B249-9583-2FF1F80C4C80}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E86"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="2" width="35.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2436,13 +5819,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2472,519 +5855,519 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B102" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2995,492 +6378,317 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5516A2F-F380-5F4E-A4CE-A6FEF40DD8EB}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3493,196 +6701,308 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FF17E0-74F4-644E-A35F-EE29C9F411AA}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
+      <c r="A21" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
+      <c r="A22" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/DB/music list_v1.xlsx
+++ b/src/DB/music list_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ww/Desktop/2019-cap1-2019_10/src/DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7019638-A851-8340-AB27-010C66438C90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFCC576-00BA-0B4F-8CB2-1A92F38F2BFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7340" yWindow="1020" windowWidth="15620" windowHeight="16160" activeTab="5" xr2:uid="{BBF66DE9-581D-6044-AA23-DDD04E8B232C}"/>
   </bookViews>
